--- a/public/data.xlsx
+++ b/public/data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>STT</t>
   </si>
@@ -29,19 +29,16 @@
     <t>Phone</t>
   </si>
   <si>
-    <t>Course</t>
-  </si>
-  <si>
-    <t>teser2111</t>
+    <t>Xếp loại</t>
+  </si>
+  <si>
+    <t>huy1</t>
   </si>
   <si>
     <t>Phamhuuky01@gmail.com</t>
   </si>
   <si>
-    <t>sadasdasd</t>
-  </si>
-  <si>
-    <t>huy1</t>
+    <t>GIOI</t>
   </si>
   <si>
     <t>Phạm Hữu Kỳ</t>
@@ -50,16 +47,46 @@
     <t>Phamhuuky99@gmail.com</t>
   </si>
   <si>
+    <t>TRUNG BINH</t>
+  </si>
+  <si>
+    <t>KHA</t>
+  </si>
+  <si>
     <t>zcz</t>
   </si>
   <si>
+    <t>KEM</t>
+  </si>
+  <si>
     <t>asd</t>
   </si>
   <si>
     <t>asdasd</t>
   </si>
   <si>
+    <t>Huy Le Minh</t>
+  </si>
+  <si>
     <t>sadasd</t>
+  </si>
+  <si>
+    <t>Huy Le Minh33</t>
+  </si>
+  <si>
+    <t>qqweqwe</t>
+  </si>
+  <si>
+    <t>xzczxczxc</t>
+  </si>
+  <si>
+    <t>Phạm Hữu Kỳ1111</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>Huy tester</t>
   </si>
 </sst>
 </file>
@@ -395,7 +422,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -403,7 +430,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -420,7 +447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -433,11 +460,14 @@
       <c r="D2">
         <v>989717035</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2">
+        <v>11123</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -445,7 +475,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>989717035</v>
@@ -453,16 +483,19 @@
       <c r="E3">
         <v>11123</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>989717035</v>
@@ -470,13 +503,16 @@
       <c r="E4">
         <v>11123</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -484,16 +520,19 @@
       <c r="D5">
         <v>989717035</v>
       </c>
-      <c r="E5">
-        <v>3123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -501,16 +540,19 @@
       <c r="D6">
         <v>989717035</v>
       </c>
-      <c r="E6">
-        <v>11123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -519,15 +561,18 @@
         <v>989717035</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -535,16 +580,19 @@
       <c r="D8">
         <v>989717035</v>
       </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="E8">
+        <v>123</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -552,16 +600,19 @@
       <c r="D9">
         <v>989717035</v>
       </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="E9">
+        <v>123</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -569,16 +620,19 @@
       <c r="D10">
         <v>989717035</v>
       </c>
-      <c r="E10">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -587,15 +641,16 @@
         <v>989717035</v>
       </c>
       <c r="E11">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>366</v>
+      </c>
+      <c r="F11"/>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
@@ -603,16 +658,17 @@
       <c r="D12">
         <v>989717035</v>
       </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="E12">
+        <v>33</v>
+      </c>
+      <c r="F12"/>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
@@ -621,15 +677,16 @@
         <v>989717035</v>
       </c>
       <c r="E13">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>123</v>
+      </c>
+      <c r="F13"/>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
@@ -638,15 +695,16 @@
         <v>989717035</v>
       </c>
       <c r="E14">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>2134</v>
+      </c>
+      <c r="F14"/>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
@@ -657,13 +715,14 @@
       <c r="E15">
         <v>123</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15"/>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
@@ -672,15 +731,16 @@
         <v>989717035</v>
       </c>
       <c r="E16">
-        <v>2134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>232323</v>
+      </c>
+      <c r="F16"/>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
@@ -688,16 +748,17 @@
       <c r="D17">
         <v>989717035</v>
       </c>
-      <c r="E17">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17"/>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
@@ -705,16 +766,19 @@
       <c r="D18">
         <v>989717035</v>
       </c>
-      <c r="E18">
-        <v>232323</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
@@ -723,15 +787,18 @@
         <v>989717035</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
@@ -739,16 +806,19 @@
       <c r="D20">
         <v>989717035</v>
       </c>
-      <c r="E20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="E20">
+        <v>2323</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
@@ -756,16 +826,19 @@
       <c r="D21">
         <v>989717035</v>
       </c>
-      <c r="E21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="E21">
+        <v>4234234</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
@@ -773,8 +846,71 @@
       <c r="D22">
         <v>989717035</v>
       </c>
-      <c r="E22">
-        <v>2323</v>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>989717035</v>
+      </c>
+      <c r="E23">
+        <v>11123</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>989717035</v>
+      </c>
+      <c r="E24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>989717035</v>
+      </c>
+      <c r="E25">
+        <v>11123</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
